--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_16_5.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_16_5.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_16_5_0</t>
+          <t>model_16_5_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999885783090262</v>
+        <v>0.9999961104193537</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991019775190519</v>
+        <v>0.9991061984644166</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999973140538375</v>
+        <v>0.9999568231880337</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999356634526555</v>
+        <v>0.9999673540377151</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999796003613591</v>
+        <v>0.9999848206783085</v>
       </c>
       <c r="G2" t="n">
-        <v>1.066164716976279e-05</v>
+        <v>3.630752800541081e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008382645673338543</v>
+        <v>0.0008343245001140204</v>
       </c>
       <c r="I2" t="n">
-        <v>3.338102236915071e-06</v>
+        <v>7.488688626369857e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>3.243019887051808e-05</v>
+        <v>1.507728750801441e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>1.788415055371658e-05</v>
+        <v>1.128298806719213e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001990845791699177</v>
+        <v>0.0001361287244106276</v>
       </c>
       <c r="M2" t="n">
-        <v>0.003265217782899449</v>
+        <v>0.00190545343699107</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000030457842597</v>
+        <v>1.000010372215057</v>
       </c>
       <c r="O2" t="n">
-        <v>0.003404224863850097</v>
+        <v>0.001986572534636161</v>
       </c>
       <c r="P2" t="n">
-        <v>88.89771526484779</v>
+        <v>91.05214109623849</v>
       </c>
       <c r="Q2" t="n">
-        <v>129.1206174854984</v>
+        <v>131.2750433168891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_16_5_1</t>
+          <t>model_16_5_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999862119616854</v>
+        <v>0.9999961465198609</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990994095120141</v>
+        <v>0.9991061160330805</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999902546284716</v>
+        <v>0.9999572180351197</v>
       </c>
       <c r="E3" t="n">
-        <v>0.999913591114009</v>
+        <v>0.999967726037196</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999682511301436</v>
+        <v>0.9999849823116344</v>
       </c>
       <c r="G3" t="n">
-        <v>1.287052854180694e-05</v>
+        <v>3.597054561624399e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000840661689181168</v>
+        <v>0.0008344014461479467</v>
       </c>
       <c r="I3" t="n">
-        <v>1.211157801801188e-05</v>
+        <v>7.420205411712218e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>4.35562284973258e-05</v>
+        <v>1.490548239848786e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>2.783390325766884e-05</v>
+        <v>1.116284390510004e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002295946832170704</v>
+        <v>0.0001365245824708164</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003587551886984625</v>
+        <v>0.001896590246105995</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000036768102172</v>
+        <v>1.000010275947038</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00374028139806976</v>
+        <v>0.001977332019365774</v>
       </c>
       <c r="P3" t="n">
-        <v>88.52114093892006</v>
+        <v>91.07079044943703</v>
       </c>
       <c r="Q3" t="n">
-        <v>128.7440431595707</v>
+        <v>131.2936926700876</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_16_5_2</t>
+          <t>model_16_5_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999827551769267</v>
+        <v>0.9999961855845594</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990955379381514</v>
+        <v>0.9991060199357504</v>
       </c>
       <c r="D4" t="n">
-        <v>0.999979780268328</v>
+        <v>0.9999576621546949</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9998898108445189</v>
+        <v>0.9999681334126087</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999539903722058</v>
+        <v>0.9999851606835604</v>
       </c>
       <c r="G4" t="n">
-        <v>1.609728537871999e-05</v>
+        <v>3.560589380319668e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008442756334395713</v>
+        <v>0.0008344911487874283</v>
       </c>
       <c r="I4" t="n">
-        <v>2.512914535212762e-05</v>
+        <v>7.343176259711901e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>5.554317682746193e-05</v>
+        <v>1.471733918591148e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>4.033616108979477e-05</v>
+        <v>1.103025772281169e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002581345320639999</v>
+        <v>0.0001369642211191991</v>
       </c>
       <c r="M4" t="n">
-        <v>0.004012142243081617</v>
+        <v>0.001886952405419826</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000045986194862</v>
+        <v>1.000010171774508</v>
       </c>
       <c r="O4" t="n">
-        <v>0.004182947444649004</v>
+        <v>0.001967283875848514</v>
       </c>
       <c r="P4" t="n">
-        <v>88.07371982041504</v>
+        <v>91.09116894106738</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2966220410657</v>
+        <v>131.314071161718</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_16_5_3</t>
+          <t>model_16_5_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999784748284249</v>
+        <v>0.999996228060554</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990905810148135</v>
+        <v>0.9991059137627117</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999667197031198</v>
+        <v>0.9999581438227204</v>
       </c>
       <c r="E5" t="n">
-        <v>0.999864748828964</v>
+        <v>0.9999685813118134</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999375280168966</v>
+        <v>0.9999853560255197</v>
       </c>
       <c r="G5" t="n">
-        <v>2.009280281949208e-05</v>
+        <v>3.520939903809466e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008489027037917818</v>
+        <v>0.0008345902566585927</v>
       </c>
       <c r="I5" t="n">
-        <v>4.136085637675918e-05</v>
+        <v>7.259634615500568e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>6.817621639965901e-05</v>
+        <v>1.451048037058344e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>5.47685363882091e-05</v>
+        <v>1.088505749304201e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002823340405824619</v>
+        <v>0.0001374452017639817</v>
       </c>
       <c r="M5" t="n">
-        <v>0.004482499617344332</v>
+        <v>0.001876416772417435</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000057400457534</v>
+        <v>1.000010058505189</v>
       </c>
       <c r="O5" t="n">
-        <v>0.004673328906108076</v>
+        <v>0.001956299719137445</v>
       </c>
       <c r="P5" t="n">
-        <v>87.63029775140626</v>
+        <v>91.11356517173915</v>
       </c>
       <c r="Q5" t="n">
-        <v>127.8531999720569</v>
+        <v>131.3364673923898</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_16_5_4</t>
+          <t>model_16_5_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999738347776508</v>
+        <v>0.9999962733127604</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990850549840981</v>
+        <v>0.9991057920353318</v>
       </c>
       <c r="D6" t="n">
-        <v>0.999952357332354</v>
+        <v>0.9999586922783212</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9998402550478728</v>
+        <v>0.9999690771778245</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999203062950934</v>
+        <v>0.9999855740610784</v>
       </c>
       <c r="G6" t="n">
-        <v>2.442408654245698e-05</v>
+        <v>3.478698955514262e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008540610108999298</v>
+        <v>0.0008347038838245675</v>
       </c>
       <c r="I6" t="n">
-        <v>5.921045539362966e-05</v>
+        <v>7.164509175865907e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>8.052282535936783e-05</v>
+        <v>1.428146845333011e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>6.986664037649876e-05</v>
+        <v>1.072298881459801e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0003022129346418006</v>
+        <v>0.0001379797740771185</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004942073101690926</v>
+        <v>0.001865127061493201</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000069773926265</v>
+        <v>1.000009937832639</v>
       </c>
       <c r="O6" t="n">
-        <v>0.005152467385131568</v>
+        <v>0.001944529381846242</v>
       </c>
       <c r="P6" t="n">
-        <v>87.23988151840243</v>
+        <v>91.13770439488039</v>
       </c>
       <c r="Q6" t="n">
-        <v>127.4627837390531</v>
+        <v>131.360606615531</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_16_5_5</t>
+          <t>model_16_5_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999688380423857</v>
+        <v>0.9999963221829589</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990789735154922</v>
+        <v>0.9991056568684826</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999368163021173</v>
+        <v>0.9999592794577861</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9998157774469674</v>
+        <v>0.9999696200805811</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999022537856731</v>
+        <v>0.9999858112271494</v>
       </c>
       <c r="G7" t="n">
-        <v>2.908831958107895e-05</v>
+        <v>3.43308077036221e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008597377948978194</v>
+        <v>0.0008348300561450855</v>
       </c>
       <c r="I7" t="n">
-        <v>7.852489606358788e-05</v>
+        <v>7.062667377470543e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>9.286127835378603e-05</v>
+        <v>1.403073297553719e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>8.569308720868696e-05</v>
+        <v>1.054670017650387e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000319773783290923</v>
+        <v>0.0001385769440664518</v>
       </c>
       <c r="M7" t="n">
-        <v>0.005393358840377577</v>
+        <v>0.001852857460886349</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000083098553638</v>
+        <v>1.00000980751211</v>
       </c>
       <c r="O7" t="n">
-        <v>0.005622965292004373</v>
+        <v>0.001931737438939982</v>
       </c>
       <c r="P7" t="n">
-        <v>86.8903477066626</v>
+        <v>91.16410503226608</v>
       </c>
       <c r="Q7" t="n">
-        <v>127.1132499273132</v>
+        <v>131.3870072529167</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_16_5_6</t>
+          <t>model_16_5_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999638676467677</v>
+        <v>0.9999963741400201</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990728370114236</v>
+        <v>0.9991055011134531</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999210531081965</v>
+        <v>0.9999599408543878</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9997930952240909</v>
+        <v>0.9999702155409378</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9998845599508672</v>
+        <v>0.9999860733798126</v>
       </c>
       <c r="G8" t="n">
-        <v>3.372796571532518e-05</v>
+        <v>3.384581134413704e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008654659520845049</v>
+        <v>0.0008349754466283649</v>
       </c>
       <c r="I8" t="n">
-        <v>9.811544245042933e-05</v>
+        <v>6.947953182897219e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0001042947330397138</v>
+        <v>1.375572417297541e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0001012050877450716</v>
+        <v>1.035183867793632e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003371856398605882</v>
+        <v>0.0001392233651299999</v>
       </c>
       <c r="M8" t="n">
-        <v>0.005807578300404152</v>
+        <v>0.001839723113518364</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000096352941953</v>
+        <v>1.000009668959946</v>
       </c>
       <c r="O8" t="n">
-        <v>0.00605481893199677</v>
+        <v>0.001918043935212695</v>
       </c>
       <c r="P8" t="n">
-        <v>86.59436644310145</v>
+        <v>91.19256080187304</v>
       </c>
       <c r="Q8" t="n">
-        <v>126.8172686637521</v>
+        <v>131.4154630225237</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_16_5_7</t>
+          <t>model_16_5_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999589508842962</v>
+        <v>0.9999964296464942</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990669247165919</v>
+        <v>0.9991053225233574</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999053208903708</v>
+        <v>0.9999606675284897</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9997717741717357</v>
+        <v>0.999970870901384</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9998672793889166</v>
+        <v>0.9999863617571475</v>
       </c>
       <c r="G9" t="n">
-        <v>3.831754766153213e-05</v>
+        <v>3.332768277252526e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>0.000870984819790204</v>
+        <v>0.0008351421526435145</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001176674916499593</v>
+        <v>6.821917103955314e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0001150420609045864</v>
+        <v>1.345305097302483e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0001163547762772729</v>
+        <v>1.013748403849007e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003531567619883066</v>
+        <v>0.0001399437903227626</v>
       </c>
       <c r="M9" t="n">
-        <v>0.006190116934398908</v>
+        <v>0.001825587104811087</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000109464308544</v>
+        <v>1.000009520942682</v>
       </c>
       <c r="O9" t="n">
-        <v>0.006453643027604821</v>
+        <v>0.001903306127349176</v>
       </c>
       <c r="P9" t="n">
-        <v>86.33920520643207</v>
+        <v>91.22341456966436</v>
       </c>
       <c r="Q9" t="n">
-        <v>126.5621074270827</v>
+        <v>131.446316790315</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_16_5_8</t>
+          <t>model_16_5_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999541699977903</v>
+        <v>0.9999964879423549</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990612224536168</v>
+        <v>0.9991051203398017</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9998898133090086</v>
+        <v>0.9999614664954771</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9997520941999676</v>
+        <v>0.999971588882979</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9998506298372695</v>
+        <v>0.9999866780229653</v>
       </c>
       <c r="G10" t="n">
-        <v>4.278029535816233e-05</v>
+        <v>3.278351650273517e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008763076319769239</v>
+        <v>0.0008353308821178381</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001369403619544785</v>
+        <v>6.683342375541121e-06</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0001249621673533958</v>
+        <v>1.312145667544032e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0001309512646539372</v>
+        <v>9.902399525490719e-06</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0003673735471994834</v>
+        <v>0.0001407300044245192</v>
       </c>
       <c r="M10" t="n">
-        <v>0.006540664748950395</v>
+        <v>0.001810621895999691</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000122213339226</v>
+        <v>1.000009365487054</v>
       </c>
       <c r="O10" t="n">
-        <v>0.006819114388355778</v>
+        <v>0.001887703818616427</v>
       </c>
       <c r="P10" t="n">
-        <v>86.11886590043196</v>
+        <v>91.25633961506985</v>
       </c>
       <c r="Q10" t="n">
-        <v>126.3417681210826</v>
+        <v>131.4792418357205</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_16_5_9</t>
+          <t>model_16_5_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999495213482721</v>
+        <v>0.9999965487228375</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990558214408514</v>
+        <v>0.9991048878983337</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9998746525494681</v>
+        <v>0.9999623450069546</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9997335815136187</v>
+        <v>0.9999723774078959</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9998345616921973</v>
+        <v>0.9999870254844393</v>
       </c>
       <c r="G11" t="n">
-        <v>4.71196056312456e-05</v>
+        <v>3.221615737627732e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008813492403164269</v>
+        <v>0.0008355478560252407</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0001557822010215068</v>
+        <v>6.530971262202415e-06</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0001342938788719898</v>
+        <v>1.275728248520719e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0001450380399467483</v>
+        <v>9.644126873704804e-06</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0003798950761204008</v>
+        <v>0.0001416019226946456</v>
       </c>
       <c r="M11" t="n">
-        <v>0.006864372194982263</v>
+        <v>0.001794885995718874</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000134609737941</v>
+        <v>1.000009203405767</v>
       </c>
       <c r="O11" t="n">
-        <v>0.007156602730532013</v>
+        <v>0.001871298008482851</v>
       </c>
       <c r="P11" t="n">
-        <v>85.92564277622341</v>
+        <v>91.29125508477283</v>
       </c>
       <c r="Q11" t="n">
-        <v>126.148544996874</v>
+        <v>131.5141573054235</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_16_5_10</t>
+          <t>model_16_5_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999451370491227</v>
+        <v>0.9999966110258841</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990507842236039</v>
+        <v>0.9991046213354621</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9998601326318223</v>
+        <v>0.999963307527083</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9997169745654961</v>
+        <v>0.9999732306554291</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9998194956509762</v>
+        <v>0.9999874028541084</v>
       </c>
       <c r="G12" t="n">
-        <v>5.121215643871682e-05</v>
+        <v>3.163458578385043e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008860512615086799</v>
+        <v>0.0008357966807651858</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0001738275997904086</v>
+        <v>6.364029489300952e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001426649626879227</v>
+        <v>1.236321665063629e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0001582462812391657</v>
+        <v>9.363623069968622e-06</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0003910000887678628</v>
+        <v>0.0001425576267064631</v>
       </c>
       <c r="M12" t="n">
-        <v>0.007156266934562797</v>
+        <v>0.001778611418603019</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000146301202339</v>
+        <v>1.000009037264309</v>
       </c>
       <c r="O12" t="n">
-        <v>0.007460924033481901</v>
+        <v>0.001854330588926155</v>
       </c>
       <c r="P12" t="n">
-        <v>85.75906724731455</v>
+        <v>91.32768928409757</v>
       </c>
       <c r="Q12" t="n">
-        <v>125.9819694679652</v>
+        <v>131.5505915047482</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_16_5_11</t>
+          <t>model_16_5_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999409000550059</v>
+        <v>0.9999966741949688</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990461616810434</v>
+        <v>0.9991043187568187</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9998460244802578</v>
+        <v>0.9999643848776928</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9997013629193067</v>
+        <v>0.9999741593867986</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9998050076063492</v>
+        <v>0.9999878170710395</v>
       </c>
       <c r="G13" t="n">
-        <v>5.516720446419066e-05</v>
+        <v>3.10449301064666e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008903662020826768</v>
+        <v>0.0008360791246470826</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0001913612543938889</v>
+        <v>6.177171245466385e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0001505343434911488</v>
+        <v>1.193428918471227e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0001709477989425188</v>
+        <v>9.055730215089327e-06</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0004006865972453839</v>
+        <v>0.0001436138586680758</v>
       </c>
       <c r="M13" t="n">
-        <v>0.007427462855120223</v>
+        <v>0.001761957153465049</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000157599853318</v>
+        <v>1.000008868813416</v>
       </c>
       <c r="O13" t="n">
-        <v>0.007743665325830405</v>
+        <v>0.001836967317242181</v>
       </c>
       <c r="P13" t="n">
-        <v>85.61028380653437</v>
+        <v>91.36532027501201</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.833186027185</v>
+        <v>131.5882224956626</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999370958353079</v>
+        <v>0.99999673695668</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9990419583996663</v>
+        <v>0.9991039663979675</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9998332398607023</v>
+        <v>0.9999655545667745</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9996877645315018</v>
+        <v>0.9999751677357288</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9997920364699189</v>
+        <v>0.999988266795327</v>
       </c>
       <c r="G14" t="n">
-        <v>5.871827656640211e-05</v>
+        <v>3.0459077081589e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008942897807455589</v>
+        <v>0.0008364080361679408</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0002072500193041236</v>
+        <v>5.974297598153247e-06</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0001573888987794434</v>
+        <v>1.146859095850514e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0001823194590417835</v>
+        <v>8.721444278329195e-06</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0004089209421104523</v>
+        <v>0.0001447570354918955</v>
       </c>
       <c r="M14" t="n">
-        <v>0.007662785170315171</v>
+        <v>0.001745252906646741</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000167744439179</v>
+        <v>1.000008701448853</v>
       </c>
       <c r="O14" t="n">
-        <v>0.007989005799167549</v>
+        <v>0.00181955193605426</v>
       </c>
       <c r="P14" t="n">
-        <v>85.48551904823189</v>
+        <v>91.40342320661446</v>
       </c>
       <c r="Q14" t="n">
-        <v>125.7084212688825</v>
+        <v>131.6263254272651</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_16_5_13</t>
+          <t>model_16_5_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999334851104601</v>
+        <v>0.9999967978047686</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9990380563634184</v>
+        <v>0.9991035597173905</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9998210608289556</v>
+        <v>0.9999668464753007</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9996751226263909</v>
+        <v>0.9999762628003984</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9997797695518332</v>
+        <v>0.999988757718292</v>
       </c>
       <c r="G15" t="n">
-        <v>6.208872971933087e-05</v>
+        <v>2.989108688452357e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008979321603034323</v>
+        <v>0.0008367876546352952</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0002223861578035075</v>
+        <v>5.750225920656559e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0001637613187144765</v>
+        <v>1.096284373257511e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.000193073738258992</v>
+        <v>8.356534826615831e-06</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0004164305877351571</v>
+        <v>0.0001459887710279118</v>
       </c>
       <c r="M15" t="n">
-        <v>0.007879640202403334</v>
+        <v>0.001728903897980555</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000177373038773</v>
+        <v>1.000008539187284</v>
       </c>
       <c r="O15" t="n">
-        <v>0.008215092798923507</v>
+        <v>0.00180250691624204</v>
       </c>
       <c r="P15" t="n">
-        <v>85.37389214299307</v>
+        <v>91.44107062501828</v>
       </c>
       <c r="Q15" t="n">
-        <v>125.5967943636437</v>
+        <v>131.6639728456689</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_16_5_14</t>
+          <t>model_16_5_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999300972435236</v>
+        <v>0.9999968542335694</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990344179025549</v>
+        <v>0.9991030869287149</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9998095558382989</v>
+        <v>0.9999682625949209</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9996635477807753</v>
+        <v>0.9999774465300563</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9997682871613212</v>
+        <v>0.99998929067786</v>
       </c>
       <c r="G16" t="n">
-        <v>6.525115479440473e-05</v>
+        <v>2.936434879751358e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0009013285038094599</v>
+        <v>0.0008372289821110348</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0002366845959419656</v>
+        <v>5.504610776546939e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001695958647183371</v>
+        <v>1.041614726124672e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0002031402303301514</v>
+        <v>7.960379018896829e-06</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0004231005594589411</v>
+        <v>0.00014733827353634</v>
       </c>
       <c r="M16" t="n">
-        <v>0.008077818690364665</v>
+        <v>0.001713602894416136</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000186407350604</v>
+        <v>1.000008388710482</v>
       </c>
       <c r="O16" t="n">
-        <v>0.008421708155403376</v>
+        <v>0.001786554517278439</v>
       </c>
       <c r="P16" t="n">
-        <v>85.27453362783908</v>
+        <v>91.47662867674867</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.4974358484897</v>
+        <v>131.6995308973993</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_16_5_15</t>
+          <t>model_16_5_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999270037147092</v>
+        <v>0.9999969017104456</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9990310868224376</v>
+        <v>0.9991025441772214</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9997990389605463</v>
+        <v>0.9999697868868809</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9996530912452014</v>
+        <v>0.9999787114175009</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9997578266477032</v>
+        <v>0.9999898614705913</v>
       </c>
       <c r="G17" t="n">
-        <v>6.813882815232252e-05</v>
+        <v>2.892117299780663e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0009044379208814699</v>
+        <v>0.0008377356168060567</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0002497550042925738</v>
+        <v>5.240233965375629e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0001748667028679222</v>
+        <v>9.83196868806728e-06</v>
       </c>
       <c r="K17" t="n">
-        <v>0.000212310853580248</v>
+        <v>7.536101326721455e-06</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0004289724734228247</v>
+        <v>0.0001488296232781995</v>
       </c>
       <c r="M17" t="n">
-        <v>0.00825462465241894</v>
+        <v>0.001700622621212791</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000194656760775</v>
+        <v>1.000008262105478</v>
       </c>
       <c r="O17" t="n">
-        <v>0.008606041113301099</v>
+        <v>0.001773021646971958</v>
       </c>
       <c r="P17" t="n">
-        <v>85.18792668705299</v>
+        <v>91.50704338880033</v>
       </c>
       <c r="Q17" t="n">
-        <v>125.4108289077036</v>
+        <v>131.7299456094509</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_16_5_16</t>
+          <t>model_16_5_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999241536271941</v>
+        <v>0.9999969376882827</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9990280825791195</v>
+        <v>0.9991019077221363</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9997893036700204</v>
+        <v>0.9999714665858654</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9996436464817675</v>
+        <v>0.9999800687908625</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9997482109965332</v>
+        <v>0.9999904791265344</v>
       </c>
       <c r="G18" t="n">
-        <v>7.079925974332963e-05</v>
+        <v>2.858533568170423e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0009072422501478277</v>
+        <v>0.0008383297196909731</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0002618540536093268</v>
+        <v>4.948902991454789e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0001796275358483448</v>
+        <v>9.205076202853768e-06</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0002207407947288358</v>
+        <v>7.076989597154277e-06</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0004340853754925316</v>
+        <v>0.0001504306641895695</v>
       </c>
       <c r="M18" t="n">
-        <v>0.008414229598919298</v>
+        <v>0.001690719837279501</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000202256994149</v>
+        <v>1.000008166164579</v>
       </c>
       <c r="O18" t="n">
-        <v>0.008772440772801765</v>
+        <v>0.00176269728102504</v>
       </c>
       <c r="P18" t="n">
-        <v>85.1113240258439</v>
+        <v>91.53040360605949</v>
       </c>
       <c r="Q18" t="n">
-        <v>125.3342262464945</v>
+        <v>131.7533058267101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_16_5_17</t>
+          <t>model_16_5_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999214559817925</v>
+        <v>0.9999969563935193</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9990252479986688</v>
+        <v>0.9991011636772877</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9997800893515592</v>
+        <v>0.9999732813216468</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9996347562689363</v>
+        <v>0.9999815153343627</v>
       </c>
       <c r="F19" t="n">
-        <v>0.999739124038015</v>
+        <v>0.9999911402390308</v>
       </c>
       <c r="G19" t="n">
-        <v>7.33173933127433e-05</v>
+        <v>2.84107305088112e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0009098882065748778</v>
+        <v>0.0008390242528972533</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0002733056372253036</v>
+        <v>4.634150915352033e-06</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0001841088358561943</v>
+        <v>8.537001172467913e-06</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0002287072365407489</v>
+        <v>6.585576043909973e-06</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0004388139587453968</v>
+        <v>0.0001521282960102899</v>
       </c>
       <c r="M19" t="n">
-        <v>0.008562557638506342</v>
+        <v>0.001685548293844208</v>
       </c>
       <c r="N19" t="n">
-        <v>1.00020945071522</v>
+        <v>1.000008116283949</v>
       </c>
       <c r="O19" t="n">
-        <v>0.008927083444115398</v>
+        <v>0.001757305574279135</v>
       </c>
       <c r="P19" t="n">
-        <v>85.04142537564823</v>
+        <v>91.54265748467093</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.2643275962989</v>
+        <v>131.7655597053216</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_16_5_18</t>
+          <t>model_16_5_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999190636250169</v>
+        <v>0.9999969499540609</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9990227352371093</v>
+        <v>0.9991002926389052</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9997718741654801</v>
+        <v>0.9999752258938426</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9996270180094128</v>
+        <v>0.9999830465672357</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9997310764389996</v>
+        <v>0.9999918428093439</v>
       </c>
       <c r="G20" t="n">
-        <v>7.555055335039817e-05</v>
+        <v>2.847084002602254e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0009122337591932384</v>
+        <v>0.0008398373289931892</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0002835154960119117</v>
+        <v>4.29687970373484e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0001880094694092117</v>
+        <v>7.829813004285631e-06</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0002357624827105617</v>
+        <v>6.063346354010236e-06</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0004428882996270148</v>
+        <v>0.0001539683689661261</v>
       </c>
       <c r="M20" t="n">
-        <v>0.008691982130124185</v>
+        <v>0.001687330436696456</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000215830333288</v>
+        <v>1.000008133455838</v>
       </c>
       <c r="O20" t="n">
-        <v>0.009062017804287045</v>
+        <v>0.001759163586642148</v>
       </c>
       <c r="P20" t="n">
-        <v>84.98141708995706</v>
+        <v>91.53843048889559</v>
       </c>
       <c r="Q20" t="n">
-        <v>125.2043193106077</v>
+        <v>131.7613327095462</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_16_5_19</t>
+          <t>model_16_5_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999168418055981</v>
+        <v>0.9999969098355809</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9990204306386339</v>
+        <v>0.9990992666301219</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9997642352753885</v>
+        <v>0.9999773053674639</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9996198945131179</v>
+        <v>0.9999846544813629</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9997236140567437</v>
+        <v>0.9999925849405608</v>
       </c>
       <c r="G21" t="n">
-        <v>7.762452425126901e-05</v>
+        <v>2.884532842697891e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0009143850007097648</v>
+        <v>0.0008407950631558248</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0002930091323545927</v>
+        <v>3.936210869058815e-06</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0001916002185406375</v>
+        <v>7.087210186457816e-06</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0002423046754476151</v>
+        <v>5.511710527758315e-06</v>
       </c>
       <c r="L21" t="n">
-        <v>0.000446553328172772</v>
+        <v>0.000155915408834727</v>
       </c>
       <c r="M21" t="n">
-        <v>0.008810478094364063</v>
+        <v>0.001698391251360502</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000221755185072</v>
+        <v>1.000008240438451</v>
       </c>
       <c r="O21" t="n">
-        <v>0.009185558387045076</v>
+        <v>0.001770695283085485</v>
       </c>
       <c r="P21" t="n">
-        <v>84.92725429307508</v>
+        <v>91.51229519478049</v>
       </c>
       <c r="Q21" t="n">
-        <v>125.1501565137257</v>
+        <v>131.7351974154311</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_16_5_20</t>
+          <t>model_16_5_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.999914813859708</v>
+        <v>0.9999968248562549</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9990183322378307</v>
+        <v>0.9990980480160367</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9997572633612541</v>
+        <v>0.9999795316887816</v>
       </c>
       <c r="E22" t="n">
-        <v>0.999613402335656</v>
+        <v>0.9999863292695452</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9997168059251187</v>
+        <v>0.9999933649796831</v>
       </c>
       <c r="G22" t="n">
-        <v>7.951752272310245e-05</v>
+        <v>2.963857313359517e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0009163437657504906</v>
+        <v>0.0008419325859133314</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0003016738489049986</v>
+        <v>3.550072421782155e-06</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0001948727380475585</v>
+        <v>6.313722098687334e-06</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0002482732934762786</v>
+        <v>4.931897260234744e-06</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0004497936352780096</v>
+        <v>0.0001579457176707173</v>
       </c>
       <c r="M22" t="n">
-        <v>0.008917259821441923</v>
+        <v>0.001721585697361452</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000227163040779</v>
+        <v>1.000008467049987</v>
       </c>
       <c r="O22" t="n">
-        <v>0.009296886033313289</v>
+        <v>0.001794877164671818</v>
       </c>
       <c r="P22" t="n">
-        <v>84.87906629795941</v>
+        <v>91.4580379831628</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.10196851861</v>
+        <v>131.6809402038134</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_16_5_21</t>
+          <t>model_16_5_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.999912980378835</v>
+        <v>0.9999966802591445</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9990164341395295</v>
+        <v>0.9990966014900358</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9997509211161191</v>
+        <v>0.9999818858330831</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9996076534676746</v>
+        <v>0.999988060529121</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9997106577964765</v>
+        <v>0.9999941774753865</v>
       </c>
       <c r="G23" t="n">
-        <v>8.122899663762117e-05</v>
+        <v>3.098832368835409e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0009181155571977335</v>
+        <v>0.0008432828544401106</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0003095560108665952</v>
+        <v>3.141764053188247e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0001977705766729405</v>
+        <v>5.514153130653367e-06</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0002536632937697678</v>
+        <v>4.327958591920807e-06</v>
       </c>
       <c r="L23" t="n">
-        <v>0.000452700437078021</v>
+        <v>0.0001600413793846539</v>
       </c>
       <c r="M23" t="n">
-        <v>0.009012713056434293</v>
+        <v>0.001760350069967735</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000232052323107</v>
+        <v>1.000008852642281</v>
       </c>
       <c r="O23" t="n">
-        <v>0.009396402910134721</v>
+        <v>0.001835291816873264</v>
       </c>
       <c r="P23" t="n">
-        <v>84.8364765461873</v>
+        <v>91.36897034527991</v>
       </c>
       <c r="Q23" t="n">
-        <v>125.0593787668379</v>
+        <v>131.5918725659305</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_16_5_22</t>
+          <t>model_16_5_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999112737680116</v>
+        <v>0.9999964561700542</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9990146816719117</v>
+        <v>0.9990948941366662</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9997450087237015</v>
+        <v>0.9999843406959272</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9996023452097442</v>
+        <v>0.9999898213454113</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9997049410184164</v>
+        <v>0.9999950109039962</v>
       </c>
       <c r="G24" t="n">
-        <v>8.282204292975517e-05</v>
+        <v>3.30800969829722e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0009197514087945565</v>
+        <v>0.0008448765938664749</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0003169039505351465</v>
+        <v>2.715986821773756e-06</v>
       </c>
       <c r="J24" t="n">
-        <v>0.000200446316473123</v>
+        <v>4.700933620536003e-06</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0002586751335041347</v>
+        <v>3.708460221154879e-06</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0004553589838975559</v>
+        <v>0.0001621872707046261</v>
       </c>
       <c r="M24" t="n">
-        <v>0.009100661675381367</v>
+        <v>0.00181879347323912</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000236603285303</v>
+        <v>1.000009450213189</v>
       </c>
       <c r="O24" t="n">
-        <v>0.009488095683869109</v>
+        <v>0.001896223276816435</v>
       </c>
       <c r="P24" t="n">
-        <v>84.79763262608928</v>
+        <v>91.23832769807301</v>
       </c>
       <c r="Q24" t="n">
-        <v>125.0205348467399</v>
+        <v>131.4612299187236</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_16_5_23</t>
+          <t>model_16_5_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999097264598982</v>
+        <v>0.9999961294982126</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9990130682035251</v>
+        <v>0.999092852512847</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9997396461227259</v>
+        <v>0.9999868704497137</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9995975512563456</v>
+        <v>0.9999915903256642</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9996997617901499</v>
+        <v>0.9999958556062717</v>
       </c>
       <c r="G25" t="n">
-        <v>8.426638713463088e-05</v>
+        <v>3.612943523189675e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0009212575107103444</v>
+        <v>0.0008467823600847239</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0003235686076911485</v>
+        <v>2.277220327782344e-06</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0002028628101848665</v>
+        <v>3.883943646775381e-06</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0002632157089380075</v>
+        <v>3.080581987278862e-06</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0004577815563636861</v>
+        <v>0.0001643008812722765</v>
       </c>
       <c r="M25" t="n">
-        <v>0.009179672496044228</v>
+        <v>0.001900774453529317</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000240729440272</v>
+        <v>1.0000103213381</v>
       </c>
       <c r="O25" t="n">
-        <v>0.009570470158742536</v>
+        <v>0.001981694357161611</v>
       </c>
       <c r="P25" t="n">
-        <v>84.76305500319324</v>
+        <v>91.06197547495306</v>
       </c>
       <c r="Q25" t="n">
-        <v>124.9859572238439</v>
+        <v>131.2848776956037</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_16_5_24</t>
+          <t>model_16_5_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999083250412405</v>
+        <v>0.9999956689582546</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9990116400192903</v>
+        <v>0.9990904114560636</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9997347814213571</v>
+        <v>0.9999894249403248</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9995932371931034</v>
+        <v>0.9999933230116744</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9996950734368724</v>
+        <v>0.9999966919192124</v>
       </c>
       <c r="G26" t="n">
-        <v>8.557454993637604e-05</v>
+        <v>4.042837358524299e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0009225906580033979</v>
+        <v>0.0008490609794420691</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0003296144736687343</v>
+        <v>1.834163420279407e-06</v>
       </c>
       <c r="J26" t="n">
-        <v>0.000205037405102648</v>
+        <v>3.083715890919019e-06</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0002673259393856911</v>
+        <v>2.458939655599213e-06</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0004598879609145633</v>
+        <v>0.0001663687866027376</v>
       </c>
       <c r="M26" t="n">
-        <v>0.009250651324981179</v>
+        <v>0.002010680819653954</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000244466556692</v>
+        <v>1.000011549444654</v>
       </c>
       <c r="O26" t="n">
-        <v>0.009644470703373764</v>
+        <v>0.002096279664829716</v>
       </c>
       <c r="P26" t="n">
-        <v>84.73224526570095</v>
+        <v>90.8371275920672</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.9551474863516</v>
+        <v>131.0600298127178</v>
       </c>
     </row>
   </sheetData>
